--- a/test-files/demo-files/21-genes_31-edges_Schade-data_input.xlsx
+++ b/test-files/demo-files/21-genes_31-edges_Schade-data_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12285" windowHeight="13005" tabRatio="644" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28665" windowHeight="6510" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -202,12 +202,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -223,18 +223,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,16 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,6 +325,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,6 +408,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -445,6 +443,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,14 +619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -635,7 +634,7 @@
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -646,235 +645,235 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
-        <v>6.242669444439939E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3">
+        <v>5.6454699400469585E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.10522676713463036</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3">
+        <v>7.9330985366991902E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>2.0858239697015505E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="3">
+        <v>1.9752304725644133E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>3.3546638513152101E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3">
+        <v>3.3795906765722E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>3.9619455373539288E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3">
+        <v>3.1020143371824505E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.18601110490312825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3">
+        <v>0.14088825191106802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.13123236983890324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3">
+        <v>0.11154638144825144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.20777488757745535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3">
+        <v>0.1963159368179215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>5.4767494999982819E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3">
+        <v>5.3889043874193077E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.17120461804021761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3">
+        <v>0.12815831377911416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.13383936151722145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3">
+        <v>0.13211520958506387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>4.6082765886743558E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3">
+        <v>4.3213186230593212E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.6910371803648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3">
+        <v>0.54876409005989424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.1741844147037204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3">
+        <v>0.14546368990806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
-        <v>7.9007782962686582E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="C16" s="3">
+        <v>6.6011579608223986E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.44288657618668342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="C17" s="3">
+        <v>0.44288096825491846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.37982964972805122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="C18" s="3">
+        <v>0.3788494714977898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4">
-        <v>4.4591654910338729E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="3">
+        <v>4.4519366186329026E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4">
-        <v>2.5700240496800562E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="3">
+        <v>2.576736105652043E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.13019562378812793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="3">
+        <v>0.13010978300207396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="4">
-        <v>9.9909635642115913E-2</v>
+      <c r="C22" s="3">
+        <v>0.1009156862079824</v>
       </c>
     </row>
   </sheetData>
@@ -885,16 +884,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -905,7 +904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -913,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.86375907025127707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.21400910999979947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -924,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-8.4512094623483261E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-3.0097269423921845E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -935,10 +934,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>-2.7036238635246637E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-2.5854989373965038E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -946,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.31799160987778807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7.7100242021748255E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -957,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.0785480271819798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>1.0092961615087226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -968,10 +967,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.30848217294835073</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.12140532582048055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -979,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.59772497124282109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.45591326049519942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -990,10 +989,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.91436086323291665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.47055992894815318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1001,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>-8.3565942702706703E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-6.4667318623537584E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1012,10 +1011,10 @@
         <v>42</v>
       </c>
       <c r="C11">
-        <v>-0.18435844242715063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.10300251273705402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1023,10 +1022,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>-0.19668331979958451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.17254649199890326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1034,10 +1033,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>-1.8473389582098459E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-3.212494239192671E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1045,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>-1.0934878631044176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.73701506582980847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1056,10 +1055,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1.5145734224690381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.0800531504299524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1067,10 +1066,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.35275459473035098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.15846314839540446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1081,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1142,260 +1141,260 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>2.5672117798516494E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>1.7328679513998631E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>1.1002336199364211E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>7.7016353395549478E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>6.9314718055994526E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>1.6503504299046318E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>5.7762265046662105E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>1.332975347230664E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>1.2602676010180823E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>3.3007008598092635E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>0.34657359027997264</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>7.453195489891885E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>4.9510512897138946E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
@@ -1408,457 +1407,457 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
+      <c r="C1" s="5">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5">
         <v>10</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="5">
         <v>30</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>-0.23499151639564886</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>-7.4111312717806896E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>-4.5672082000020486E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.48435089511121021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0.4326416512725948</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>-3.0668487916819701E-2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>-0.16312292236414141</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>-0.81793317594908443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>-0.54635409361384002</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>-0.17770217544002159</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>-0.23678158387819867</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>-0.75147912525362393</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>-0.33742354680821629</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>-0.18941776396225327</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.12236189160414897</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.8561782188284095</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>-3.8567306292018968E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>-0.14598311750820731</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>-0.77987217081516391</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>-0.37427042872419891</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>-0.14157029879722779</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>-0.41393783531037709</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>8.9308435643215237E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>4.7013326873905102E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>-7.0669015655425342E-3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.29688216043647697</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.25764922912773286</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1.1248372482258766</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>-0.44126548217999884</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>-0.1239172604895365</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.51530764708834054</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>-0.30259736113703295</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>-0.22472535874945695</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>-2.2738389655590812E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.33972787633317569</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.55135867455041376</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>-0.32846952226326981</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.39646443321930358</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.11581866203986679</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>5.8441255712988402E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>7.5245867435778102E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.1991566212270075</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.26671618423813243</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.34910882026688672</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>-0.35070290232852686</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>-0.2928954490419074</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.23433955268713946</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>-0.21167047056013749</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.67656669842477513</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1.1362539127863669</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.89520225352892835</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.70320378879765943</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>-0.65249310116925108</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.18969540653388575</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.30969695475694581</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1.3499275795365722</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.13453506928279035</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>-0.25431053152681732</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>7.7965858058161974E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.28201661662499822</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>1.62100239431284</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>-0.353687539565399</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>-0.26904411992483118</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>-1.2538405721454773</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>-0.54236208810543562</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>-2.4845402327842971E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>-0.41536949244534521</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>-0.34874733011964443</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>0.19671308566348053</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>-0.21531120437807896</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>8.5925972742487422E-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>-0.35846845614647627</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>-0.77986453280971368</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>-0.17741630704528819</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>7.609436340254809E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.58491872133390754</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>-2.0643160241884395E-2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.32467730369134934</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.57068402112966743</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.10759743563684412</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>0.18843261371997691</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>3.5468776726524702E-2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.16851858275872603</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.93517884621662606</v>
       </c>
     </row>
@@ -1869,21 +1868,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1903,436 +1902,436 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>1.1214181944663999</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.55852538968895904</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.35044008182832931</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.70113230605848431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.57158812657450464</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.47686276651665133</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.53273183755838238</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.64255017478057119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.55180971487647335</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.31090721363028317</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.41359697197230688</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.27838685574573035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.63754394609139609</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.63813647210334568</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.37092085908273081</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.63214516421357758</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>0.47237428919404129</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.1253536405040945</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.61688474848806962</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.42823496437234221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.51768689267243395</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.5694671676316122</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.573163984104746</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>4.8795433799243088E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.70098949243155906</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0.35039020182799707</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.83865738454812822</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.49603588739778276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.95032614185344622</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.63711583591311149</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1.340224716292816</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.87095586318119766</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.49738058221474313</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.58058477549395449</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>1.2096600128564565</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.32190956976908647</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.10306041466144411</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0.48057607567481353</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.92592442334034009</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.61484906015845053</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.92772462709714409</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0.68824724177465868</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.4836055653146335</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.55944943488351928</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>8.5967040250942206E-2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>0.40660154548362171</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.52373427911532888</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.60909208857869224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.30443390807943443</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>0.58313579961105511</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.60087124890148358</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.18767426433518369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2.1208263903979594</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>0.70642644745686445</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.6742254020177878</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>1.0858535453491927</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>0.53109793978089415</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1.7313088101174661</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.58748476905001557</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.31773877344830698</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2.7177748798661061</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>0.27986899329141984</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.52274878365032373</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.55774523004671794</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>0.6586583874324683</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>0.55974171992608035</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>1.319442536378483</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1.28722744723447</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>0.75068184269056393</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>0.5674254331903027</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.17203591027849979</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.83003274855249065</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="6" customFormat="1">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>0.49087127359962673</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>0.52381980970726594</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.70269830091504848</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.29430825608901451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="6" customFormat="1">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>0.78318104487840923</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>0.85545871714953736</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.72016694852557961</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.14488756926375135</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="6" customFormat="1">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>1.4653540440729975</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>0.31089283552347502</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.82435352899221048</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.80815140874532154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="6" customFormat="1"/>
-    <row r="24" spans="1:6" s="6" customFormat="1"/>
-    <row r="25" spans="1:6" s="6" customFormat="1"/>
-    <row r="26" spans="1:6" s="6" customFormat="1"/>
-    <row r="27" spans="1:6" s="6" customFormat="1"/>
-    <row r="28" spans="1:6" s="6" customFormat="1"/>
-    <row r="29" spans="1:6" s="6" customFormat="1"/>
-    <row r="30" spans="1:6" s="6" customFormat="1"/>
-    <row r="31" spans="1:6" s="6" customFormat="1"/>
-    <row r="32" spans="1:6" s="6" customFormat="1"/>
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2341,14 +2340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
@@ -2366,76 +2365,76 @@
     <col min="15" max="16" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -2502,8 +2501,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -2570,8 +2569,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -2638,8 +2637,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -2706,8 +2705,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -2774,8 +2773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -2842,8 +2841,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -2910,8 +2909,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -2978,8 +2977,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -3046,8 +3045,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11">
@@ -3114,8 +3113,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -3182,8 +3181,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -3250,8 +3249,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -3318,8 +3317,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -3386,8 +3385,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16">
@@ -3454,8 +3453,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B17">
@@ -3522,8 +3521,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B18">
@@ -3590,8 +3589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B19">
@@ -3658,8 +3657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B20">
@@ -3726,8 +3725,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B21">
@@ -3794,8 +3793,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B22">
@@ -3871,14 +3870,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:V22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
@@ -3896,76 +3895,76 @@
     <col min="15" max="16" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -4011,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>-4.5031549633143472E-2</v>
+        <v>-2.3514515608917513E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -4032,8 +4031,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -4091,17 +4090,17 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>-0.18820887875915027</v>
+        <v>-4.2985429780012276E-3</v>
       </c>
       <c r="U3">
-        <v>-0.65095528818924187</v>
+        <v>-0.38624552336188939</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -4123,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.61206654708051067</v>
+        <v>0.39937697108766507</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4150,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.15615434905189041</v>
+        <v>-3.542421905660554E-2</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -4168,8 +4167,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -4203,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.7845882338061265E-2</v>
+        <v>0.15412923517892946</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -4236,8 +4235,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -4265,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-1.2320858786117657</v>
+        <v>-0.56427459214233033</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -4304,12 +4303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.93929482644727347</v>
+        <v>0.5757567365376377</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4354,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>-2.9706773606578425</v>
+        <v>-2.4842397030421965</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -4372,8 +4371,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -4401,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.013078893117209</v>
+        <v>0.82087439304454191</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -4428,20 +4427,20 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1.4282638085007962</v>
+        <v>1.1327684770336084</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.54468150571223883</v>
+        <v>5.9553955918487389E-2</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -4466,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.2340986634476752</v>
+        <v>0.83975564758623178</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4505,11 +4504,11 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>-0.185164874102172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="6" t="s">
+        <v>-0.14286868649613396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -4537,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-0.88904909468606708</v>
+        <v>-0.69096132225449591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -4576,8 +4575,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11">
@@ -4605,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-0.40302862152830743</v>
+        <v>-0.22265277936169836</v>
       </c>
       <c r="K11">
-        <v>-0.89655567768121591</v>
+        <v>-0.8996511802531113</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4644,8 +4643,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -4661,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-1.0194851212470761E-2</v>
+        <v>6.1917390514168039E-3</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4712,12 +4711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>-0.92778950125443505</v>
+        <v>-0.73244365573264869</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4756,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>-0.43150437543692094</v>
+        <v>-0.15618188320482398</v>
       </c>
       <c r="P13">
-        <v>-0.50707438551092265</v>
+        <v>-0.42315373918803745</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -4777,11 +4776,11 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0.57442464534242077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="6" t="s">
+        <v>0.5420485402062647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -4809,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.4998823249016862</v>
+        <v>1.1928081309101652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -4848,8 +4847,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -4901,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>-1.3615135448898985</v>
+        <v>-1.0326913096587651</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -4913,18 +4912,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>-0.40819045291287759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="6" t="s">
+        <v>-0.1323464725248332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16">
-        <v>-0.53122367215985489</v>
+        <v>-0.41636565981609769</v>
       </c>
       <c r="C16">
-        <v>-0.12925221861874403</v>
+        <v>-7.6164083342736888E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4942,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.62145042255406946</v>
+        <v>0.52856732884138802</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4954,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.75033136906382225</v>
+        <v>-0.63500590553074698</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.4592250590864119E-2</v>
+        <v>7.5648134719757384E-2</v>
       </c>
       <c r="P16">
-        <v>-0.30267311122041535</v>
+        <v>-0.14781774867848457</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4984,8 +4983,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B17">
@@ -5052,8 +5051,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B18">
@@ -5120,8 +5119,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B19">
@@ -5188,8 +5187,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B20">
@@ -5256,8 +5255,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B21">
@@ -5324,8 +5323,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B22">
@@ -5400,14 +5399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
@@ -5425,76 +5424,76 @@
     <col min="15" max="16" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -5561,8 +5560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5629,8 +5628,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -5697,8 +5696,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -5765,8 +5764,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -5833,8 +5832,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -5901,8 +5900,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -5969,8 +5968,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -6037,8 +6036,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -6105,8 +6104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11">
@@ -6173,8 +6172,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -6241,8 +6240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -6309,8 +6308,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -6377,8 +6376,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -6445,8 +6444,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16">
@@ -6513,8 +6512,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B17">
@@ -6581,8 +6580,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B18">
@@ -6649,8 +6648,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B19">
@@ -6717,8 +6716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B20">
@@ -6785,8 +6784,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B21">
@@ -6853,8 +6852,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B22">
@@ -6929,43 +6928,43 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6973,35 +6972,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -7013,16 +7012,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>

--- a/test-files/demo-files/21-genes_31-edges_Schade-data_input.xlsx
+++ b/test-files/demo-files/21-genes_31-edges_Schade-data_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr date1904="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28665" windowHeight="6510" tabRatio="679" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -18,12 +18,17 @@
     <sheet name="simulation_times" sheetId="14" r:id="rId9"/>
     <sheet name="network_b" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="58">
   <si>
     <t>CIN5</t>
   </si>
@@ -622,19 +627,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -645,7 +650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -656,7 +661,7 @@
         <v>5.6454699400469585E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -667,7 +672,7 @@
         <v>7.9330985366991902E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -678,7 +683,7 @@
         <v>1.9752304725644133E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -689,7 +694,7 @@
         <v>3.3795906765722E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -700,7 +705,7 @@
         <v>3.1020143371824505E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -711,7 +716,7 @@
         <v>0.14088825191106802</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -722,7 +727,7 @@
         <v>0.11154638144825144</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -733,7 +738,7 @@
         <v>0.1963159368179215</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -744,7 +749,7 @@
         <v>5.3889043874193077E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -755,7 +760,7 @@
         <v>0.12815831377911416</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -766,7 +771,7 @@
         <v>0.13211520958506387</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -777,7 +782,7 @@
         <v>4.3213186230593212E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -788,7 +793,7 @@
         <v>0.54876409005989424</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -799,7 +804,7 @@
         <v>0.14546368990806</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -810,7 +815,7 @@
         <v>6.6011579608223986E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="13">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -821,7 +826,7 @@
         <v>0.44288096825491846</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="13">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -832,7 +837,7 @@
         <v>0.3788494714977898</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="13">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -843,7 +848,7 @@
         <v>4.4519366186329026E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -854,7 +859,7 @@
         <v>2.576736105652043E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="13">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -865,7 +870,7 @@
         <v>0.13010978300207396</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="13">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -878,8 +883,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -891,9 +901,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -904,7 +914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -915,7 +925,7 @@
         <v>0.21400910999979947</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -926,7 +936,7 @@
         <v>-3.0097269423921845E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -937,7 +947,7 @@
         <v>-2.5854989373965038E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -948,7 +958,7 @@
         <v>7.7100242021748255E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -959,7 +969,7 @@
         <v>1.0092961615087226</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -970,7 +980,7 @@
         <v>0.12140532582048055</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -981,7 +991,7 @@
         <v>0.45591326049519942</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -992,7 +1002,7 @@
         <v>0.47055992894815318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>-6.4667318623537584E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>-0.10300251273705402</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1035,7 @@
         <v>-0.17254649199890326</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1046,7 @@
         <v>-3.212494239192671E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>-0.73701506582980847</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1058,7 +1068,7 @@
         <v>1.0800531504299524</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>0.15846314839540446</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -1113,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1137,6 +1147,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1144,19 +1159,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1204,7 @@
         <v>2.5672117798516494E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>1.7328679513998631E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>1.1002336199364211E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1222,7 +1237,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1248,7 @@
         <v>7.7016353395549478E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>6.9314718055994526E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1266,7 +1281,7 @@
         <v>1.6503504299046318E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1277,7 +1292,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1303,7 @@
         <v>5.7762265046662105E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1314,7 @@
         <v>1.332975347230664E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>1.2602676010180823E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1321,7 +1336,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1332,7 +1347,7 @@
         <v>3.3007008598092635E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>0.34657359027997264</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1369,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1365,7 +1380,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>7.453195489891885E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1387,7 +1402,7 @@
         <v>4.9510512897138946E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -1401,8 +1416,13 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1410,18 +1430,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1461,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1481,7 @@
         <v>0.48435089511121021</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1501,7 @@
         <v>-0.81793317594908443</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1501,7 +1521,7 @@
         <v>-0.75147912525362393</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1521,7 +1541,7 @@
         <v>0.8561782188284095</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1541,7 +1561,7 @@
         <v>-0.37427042872419891</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1561,7 +1581,7 @@
         <v>4.7013326873905102E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1581,7 +1601,7 @@
         <v>1.1248372482258766</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1621,7 @@
         <v>-0.30259736113703295</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1621,7 +1641,7 @@
         <v>0.55135867455041376</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +1661,7 @@
         <v>5.8441255712988402E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1661,7 +1681,7 @@
         <v>0.34910882026688672</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1701,7 @@
         <v>-0.21167047056013749</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="5" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1701,7 +1721,7 @@
         <v>0.70320378879765943</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -1721,7 +1741,7 @@
         <v>1.3499275795365722</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="5" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1761,7 @@
         <v>0.28201661662499822</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -1761,7 +1781,7 @@
         <v>-1.2538405721454773</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -1781,7 +1801,7 @@
         <v>-0.34874733011964443</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>-0.35846845614647627</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="5" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1821,7 +1841,7 @@
         <v>0.58491872133390754</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1841,7 +1861,7 @@
         <v>0.10759743563684412</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="5" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -1863,7 +1883,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1875,14 +1900,14 @@
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1902,7 +1927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1922,7 +1947,7 @@
         <v>0.70113230605848431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>0.64255017478057119</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1987,7 @@
         <v>0.27838685574573035</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1982,7 +2007,7 @@
         <v>0.63214516421357758</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="5" customFormat="1">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -2002,7 +2027,7 @@
         <v>0.42823496437234221</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="5" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -2022,7 +2047,7 @@
         <v>4.8795433799243088E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="5" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2042,7 +2067,7 @@
         <v>0.49603588739778276</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2087,7 @@
         <v>0.87095586318119766</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2082,7 +2107,7 @@
         <v>0.32190956976908647</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2102,7 +2127,7 @@
         <v>0.61484906015845053</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2122,7 +2147,7 @@
         <v>0.55944943488351928</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="5" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -2142,7 +2167,7 @@
         <v>0.60909208857869224</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="5" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -2162,7 +2187,7 @@
         <v>0.18767426433518369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="5" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2182,7 +2207,7 @@
         <v>1.0858535453491927</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="5" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2202,7 +2227,7 @@
         <v>0.31773877344830698</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
@@ -2222,7 +2247,7 @@
         <v>0.55774523004671794</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2267,7 @@
         <v>1.28722744723447</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -2262,7 +2287,7 @@
         <v>0.83003274855249065</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="5" customFormat="1">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -2282,7 +2307,7 @@
         <v>0.29430825608901451</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="5" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -2302,7 +2327,7 @@
         <v>0.14488756926375135</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="5" customFormat="1">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -2322,50 +2347,55 @@
         <v>0.80815140874532154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" s="5" customFormat="1"/>
+    <row r="24" spans="1:6" s="5" customFormat="1"/>
+    <row r="25" spans="1:6" s="5" customFormat="1"/>
+    <row r="26" spans="1:6" s="5" customFormat="1"/>
+    <row r="27" spans="1:6" s="5" customFormat="1"/>
+    <row r="28" spans="1:6" s="5" customFormat="1"/>
+    <row r="29" spans="1:6" s="5" customFormat="1"/>
+    <row r="30" spans="1:6" s="5" customFormat="1"/>
+    <row r="31" spans="1:6" s="5" customFormat="1"/>
+    <row r="32" spans="1:6" s="5" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -2433,7 +2463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2569,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2637,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2705,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2773,12 +2803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2802,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2823,27 +2853,27 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2867,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2897,21 +2927,21 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2935,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2974,12 +3004,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3009,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3045,9 +3075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3062,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3074,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3113,12 +3143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3130,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3157,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3178,15 +3208,15 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3210,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3225,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3246,12 +3276,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3278,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3302,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3314,18 +3344,18 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3343,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3355,22 +3385,22 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3382,18 +3412,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="5" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3411,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3423,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3453,9 +3483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3521,9 +3551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3589,9 +3619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3657,9 +3687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3725,9 +3755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3790,82 +3820,19 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3877,25 +3844,25 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" customWidth="1"/>
-    <col min="11" max="11" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3963,7 +3930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -4099,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -4167,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -4235,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4303,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4371,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -4439,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -4507,7 +4474,7 @@
         <v>-0.14286868649613396</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -4575,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -4643,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -4711,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -4779,7 +4746,7 @@
         <v>0.5420485402062647</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -4915,7 +4882,7 @@
         <v>-0.1323464725248332</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -4983,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -5051,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -5119,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -5187,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -5255,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -5323,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -5393,8 +5360,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5406,25 +5378,25 @@
       <selection sqref="A1:V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="2" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -5492,7 +5464,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -5560,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -5628,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -5696,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -5764,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -5832,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -5900,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -5968,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -6036,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -6104,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
@@ -6172,7 +6144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -6240,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -6308,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6376,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6444,7 +6416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -6512,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -6580,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
@@ -6648,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -6716,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -6784,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
         <v>47</v>
       </c>
@@ -6852,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
@@ -6922,8 +6894,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6935,12 +6912,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -6948,7 +6925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
@@ -6956,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6964,7 +6941,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6972,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -6980,7 +6957,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -6988,7 +6965,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -6996,7 +6973,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -7008,6 +6985,11 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7019,9 +7001,9 @@
       <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7067,5 +7049,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test-files/demo-files/21-genes_31-edges_Schade-data_input.xlsx
+++ b/test-files/demo-files/21-genes_31-edges_Schade-data_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="679" activeTab="4"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="25120" windowHeight="13760" tabRatio="679" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="58">
   <si>
     <t>CIN5</t>
   </si>
@@ -2371,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2804,11 +2804,11 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2853,19 +2853,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2927,21 +2927,21 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -3004,12 +3004,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3104,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3208,15 +3208,15 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3276,12 +3276,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3344,18 +3344,18 @@
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3385,22 +3385,22 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3412,18 +3412,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3453,16 +3453,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3757,69 +3757,137 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>0</v>
       </c>
     </row>
